--- a/biology/Zoologie/Arizonasaurus/Arizonasaurus.xlsx
+++ b/biology/Zoologie/Arizonasaurus/Arizonasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arizonasaurus (« reptile de l'Arizona ») est un genre éteint de reptiles prédateurs de la famille également éteinte des Ctenosauriscidae. Il a vécu en Amérique du Nord au Trias moyen. Ses fossiles ont été découverts en Arizona aux États-Unis[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arizonasaurus (« reptile de l'Arizona ») est un genre éteint de reptiles prédateurs de la famille également éteinte des Ctenosauriscidae. Il a vécu en Amérique du Nord au Trias moyen. Ses fossiles ont été découverts en Arizona aux États-Unis. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arizonasaurus avait une voile faite de hautes épines neurales. Cette voile était similaire à celles des autres archosaures basaux tels que les autres Ctenosauriscidae comme Ctenosauriscus, Lotosaurus, Bromsgroveia (en) et Hyspselorhachis (en)[2].
-Arizonasaurus a été décrit à partir de deux neurocrâne de deux spécimens différents. Certains de ces neurocrâne sont symplésiomorphe pour les Pseudosuchia[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arizonasaurus avait une voile faite de hautes épines neurales. Cette voile était similaire à celles des autres archosaures basaux tels que les autres Ctenosauriscidae comme Ctenosauriscus, Lotosaurus, Bromsgroveia (en) et Hyspselorhachis (en).
+Arizonasaurus a été décrit à partir de deux neurocrâne de deux spécimens différents. Certains de ces neurocrâne sont symplésiomorphe pour les Pseudosuchia,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme phylogénétique simplifié de Butler et al. (2011)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme phylogénétique simplifié de Butler et al. (2011) :
 </t>
         </is>
       </c>
